--- a/Fichiers de projet/Groupes.xlsx
+++ b/Fichiers de projet/Groupes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1db13097b500838f/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Activ\RepositorieMoov\ProcessusMoov\Fichiers de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC104849B9DC5FEA5BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90A6887-9950-421A-944B-8CE700FB7A4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC094A5-6370-4290-9B14-8A5E6E5BE9D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GROUPES SP" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
     <sheet name="MEMBRS GROUPS" sheetId="4" r:id="rId3"/>
     <sheet name="PROCESSUS" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="177">
   <si>
     <t>GroupGAP</t>
   </si>
@@ -185,17 +174,445 @@
     <t>YAHAUT ANTOINE NANGUY</t>
   </si>
   <si>
-    <t>NOM COMPET</t>
-  </si>
-  <si>
     <t>ETISALAT-AFRICA\Ananguy</t>
+  </si>
+  <si>
+    <t>Jean-Jacques KONAN</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\t_jjkonan</t>
+  </si>
+  <si>
+    <t>Tihigué TRAORE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ttraore</t>
+  </si>
+  <si>
+    <t>ESTELLE BOKOSSA</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ebokossa</t>
+  </si>
+  <si>
+    <t>GILLES MEL</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Gnmel</t>
+  </si>
+  <si>
+    <t>LAURE BESSE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Lbesse</t>
+  </si>
+  <si>
+    <t>MICHELLE AKRE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Makre</t>
+  </si>
+  <si>
+    <t>Laurent KRAMO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Kkramo</t>
+  </si>
+  <si>
+    <t>Luc Josselin  KOUADIO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Jkouadio</t>
+  </si>
+  <si>
+    <t>hamed OUATTARA</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\AOuattara</t>
+  </si>
+  <si>
+    <t>Ismael HAIDARA</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ihaidara</t>
+  </si>
+  <si>
+    <t>Henry COFFI</t>
+  </si>
+  <si>
+    <t>Yao DIAHUSSIE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ydiahussie</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Hcoffi</t>
+  </si>
+  <si>
+    <t>Emile NANOU</t>
+  </si>
+  <si>
+    <t>Rodrigue NIAVA</t>
+  </si>
+  <si>
+    <t>Augustine KADJO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Akadjo</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Rniava</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Enanou</t>
+  </si>
+  <si>
+    <t>Hervé BOBI</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Hbobi</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ndro</t>
+  </si>
+  <si>
+    <t>Nicodème DRO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\MamOuattara</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ameite</t>
+  </si>
+  <si>
+    <t>Amara MEITE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\CYAVO</t>
+  </si>
+  <si>
+    <t>Calixte YAVO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\NCOFFI</t>
+  </si>
+  <si>
+    <t>Mamidou Ouattara</t>
+  </si>
+  <si>
+    <t>NANCY JOSIANE COFFI</t>
+  </si>
+  <si>
+    <t>Sekou FANE</t>
+  </si>
+  <si>
+    <t>Thierry OHOUO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\TOHOUO</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\SFANE</t>
+  </si>
+  <si>
+    <t>Franck OUAKOUBE</t>
+  </si>
+  <si>
+    <t>Jean-Christophe OUATTARA</t>
+  </si>
+  <si>
+    <t>Stéphane KONE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\SKONE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\COUATTARA</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\FOUAKOUE</t>
+  </si>
+  <si>
+    <t>Hamed VANGA</t>
+  </si>
+  <si>
+    <t>Liliane AGOH</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Lagoh</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\HVANGA</t>
+  </si>
+  <si>
+    <t>Marie Christine KOIZAN</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Ckoizan</t>
+  </si>
+  <si>
+    <t>Hortense KONE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Hkone</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\EAMOAKON</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\SYALLET</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Dagnissan</t>
+  </si>
+  <si>
+    <t>Didier AGNISSAN</t>
+  </si>
+  <si>
+    <t>Serge YALLET</t>
+  </si>
+  <si>
+    <t>Eugène AMOAKON</t>
+  </si>
+  <si>
+    <t>VALERIE TANOH</t>
+  </si>
+  <si>
+    <t>Lacina OUATTARA</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\Louattara</t>
+  </si>
+  <si>
+    <t>Annick KACOUTIE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\AKACOUTIE</t>
+  </si>
+  <si>
+    <t>ETISALAT-AFRICA\VTanoh</t>
+  </si>
+  <si>
+    <t>ETAPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTITULE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPONSABLES </t>
+  </si>
+  <si>
+    <t>PROCESSUS DE DEMANDE D'ABSENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETAPE 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALIDATION DU SUPERIEUR N+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETAPES 2 </t>
+  </si>
+  <si>
+    <t>VALIDATION DU DIRECTEUR</t>
+  </si>
+  <si>
+    <t>ETAPES 3</t>
+  </si>
+  <si>
+    <t>VALIDATION DU SERVICE DE GESTION ADMINISTRATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETAPES 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALIDATION DE LA DRHO</t>
+  </si>
+  <si>
+    <t>REPRISE DE SERVICE APRES ABSENCES</t>
+  </si>
+  <si>
+    <t>ETAPE 1</t>
+  </si>
+  <si>
+    <t>VALIDATION DU SUPERIEUR N+1</t>
+  </si>
+  <si>
+    <t>ETAPE 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETAPE 3 </t>
+  </si>
+  <si>
+    <t>ETAPE 4</t>
+  </si>
+  <si>
+    <t>VALIDATION DE LA DRHO</t>
+  </si>
+  <si>
+    <t>PROCESSUS DE DEMANDE DE CONGES</t>
+  </si>
+  <si>
+    <t>PROCESSUS DE SORTIE DE CAISSE</t>
+  </si>
+  <si>
+    <t>VALIDATION DE LA DFC</t>
+  </si>
+  <si>
+    <t>ETAPE 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VALIDATION DU DG  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(si le montant excède 500 000 FCFA)</t>
+    </r>
+  </si>
+  <si>
+    <t>ETAPE 6</t>
+  </si>
+  <si>
+    <t>VALIDATION DU SERVICE ENGAGEMENT</t>
+  </si>
+  <si>
+    <t>ETAPE 7</t>
+  </si>
+  <si>
+    <r>
+      <t>VALIDATION DE LA RAV  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si la caisse de paiement n'est pas définie parmi les caisses recommandées)</t>
+    </r>
+  </si>
+  <si>
+    <t>PROCESSUS DE REGULARISATION DE SORTIE DE CAISSE</t>
+  </si>
+  <si>
+    <t>VALIDATION DU CONTRÔLE INTERNE</t>
+  </si>
+  <si>
+    <t>ETAPE 3</t>
+  </si>
+  <si>
+    <t>PROCESSUS DE DEMANDE DE FRAIS DE MISSION</t>
+  </si>
+  <si>
+    <r>
+      <t>VALIDATION DE LA DRHO (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si la mission a une durée supérieure à trois (3) jours</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>PROCESSUS DE REGULARISATION DE FRAIS DE MISSION</t>
+  </si>
+  <si>
+    <t>PROCESSUS DE DEMANDE DE GADGET</t>
+  </si>
+  <si>
+    <t>VALIDATION DU GESTIONNAIRE DE DIVISION COMMUNICATION</t>
+  </si>
+  <si>
+    <t>VALIDATION DU SOUS DIRECTEUR DE COMMUNICATION</t>
+  </si>
+  <si>
+    <t>VALIDATION DU DIRECTEUR MARKETING COMMUNICATION DIGITAL</t>
+  </si>
+  <si>
+    <t>VALIDATION DU GESTIONNAIRE DU STOCK MARKETING</t>
+  </si>
+  <si>
+    <t>PROCESSUS DE DEMANDE DE MATERIEL IT</t>
+  </si>
+  <si>
+    <t>VALIDATION DU GESTIONNAIRE DE DIVISION INFRASTRUCTURE</t>
+  </si>
+  <si>
+    <t>VALIDATION DU CHEF DE DIVISION INFRASTRUCTURE</t>
+  </si>
+  <si>
+    <t>VALIDATION DU DIRECTEUR SYSTÈME D'EXPLOITATION</t>
+  </si>
+  <si>
+    <t>PROCESSUS DE DEMANDE DE VEHICULE</t>
+  </si>
+  <si>
+    <t>VALIDATION DU GESTIONNAIRE DE PARC AUTOMOBILE</t>
+  </si>
+  <si>
+    <t>VALIDATION DU CHEF DE DIVISION ACHAT ET LOGISTIQUE</t>
+  </si>
+  <si>
+    <t>VALIDATION DU DIRECTEUR ADMINISTRATIF ET FINANCIER</t>
+  </si>
+  <si>
+    <t>DMCD</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>GDC</t>
+  </si>
+  <si>
+    <t>GSI</t>
+  </si>
+  <si>
+    <t>GDI</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>CDAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,16 +626,66 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,64 +709,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vérification" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,16 +1048,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -597,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -629,7 +1097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -637,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -645,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -653,7 +1121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -661,7 +1129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -669,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -677,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -685,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -693,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -701,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,15 +1190,15 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="67.26953125" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -747,7 +1215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1009</v>
       </c>
@@ -764,7 +1232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>942</v>
       </c>
@@ -781,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>951</v>
       </c>
@@ -798,7 +1266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1054</v>
       </c>
@@ -822,45 +1290,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF0667-C3E6-4B16-B065-8A26F3E2BC4F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
@@ -868,8 +1350,14 @@
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -877,34 +1365,1159 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:6" ht="29.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:6" ht="29.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="2:6" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:6" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="2:6" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="E50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="14">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C8D90E-C743-4165-9FB6-E14697BA52EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="79.90625" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="0.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="5" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="10" ht="5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="12" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="13" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="14" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="16" ht="12.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="B49" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="4"/>
+      <c r="B57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+      <c r="B64" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="B72" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4"/>
+      <c r="B77" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="B78" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="B84" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4"/>
+      <c r="B85" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>